--- a/ITEM_INFORMATION.xlsx
+++ b/ITEM_INFORMATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estore\WarehouseExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A597994-6212-4965-BA66-A686CAB070A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5EC525-818E-4DB4-962A-112E49AD9F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC377776-0D16-4C4A-A8AE-5191BF7205B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CC377776-0D16-4C4A-A8AE-5191BF7205B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>032</t>
   </si>
@@ -247,6 +247,66 @@
   </si>
   <si>
     <t>UNIT</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Combo 2 chai đỏ 3 chai xanh</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>combo 3 chai đỏ 2 chai xanh</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo 5 chai cao xoa thảo dược giang's Hiệu quả nhanh hấp thụ tốt - tặng kèm 1 son ủ môi </t>
+  </si>
+  <si>
+    <t>UM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son ủ môi </t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo 5 chai cao xoa thảo dược giang's chuyên dùng cho cổ vai gáy - tặng kèm 1 son ủ môi </t>
+  </si>
+  <si>
+    <t>CL01</t>
+  </si>
+  <si>
+    <t>Cù là húng quế</t>
+  </si>
+  <si>
+    <t>NH01</t>
+  </si>
+  <si>
+    <t>Nước hoa lài</t>
+  </si>
+  <si>
+    <t>Lọ</t>
+  </si>
+  <si>
+    <t>Son ủ môi</t>
+  </si>
+  <si>
+    <t>MN01</t>
+  </si>
+  <si>
+    <t>Mặt nạ dưỡng da</t>
+  </si>
+  <si>
+    <t>DL01</t>
+  </si>
+  <si>
+    <t>Combo du lịch</t>
   </si>
 </sst>
 </file>
@@ -687,23 +747,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D4085-4A68-B840-8338-57C1E8076B76}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A3" sqref="A3:F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="1"/>
+    <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -715,7 +775,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -735,7 +795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -755,7 +815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -775,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -795,7 +855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
@@ -815,7 +875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -835,7 +895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -855,7 +915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -875,7 +935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -895,7 +955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -915,7 +975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -935,7 +995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -955,7 +1015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -975,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -995,7 +1055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -1015,7 +1075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -1035,7 +1095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1055,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>35</v>
       </c>
@@ -1075,7 +1135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
@@ -1095,7 +1155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>36</v>
       </c>
@@ -1115,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
@@ -1135,7 +1195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
@@ -1155,7 +1215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1175,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -1195,7 +1255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -1215,7 +1275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
@@ -1235,7 +1295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
@@ -1255,7 +1315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
@@ -1275,7 +1335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
@@ -1295,7 +1355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
@@ -1315,7 +1375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -1333,6 +1393,266 @@
       </c>
       <c r="F32" s="5" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="5">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ITEM_INFORMATION.xlsx
+++ b/ITEM_INFORMATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estore\WarehouseExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5EC525-818E-4DB4-962A-112E49AD9F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3F2DAC-0BDF-4244-BEAE-5FE2AAFF7AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CC377776-0D16-4C4A-A8AE-5191BF7205B1}"/>
+    <workbookView xWindow="-23148" yWindow="12948" windowWidth="23256" windowHeight="12456" xr2:uid="{CC377776-0D16-4C4A-A8AE-5191BF7205B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="99">
   <si>
     <t>032</t>
   </si>
@@ -288,9 +288,6 @@
     <t>NH01</t>
   </si>
   <si>
-    <t>Nước hoa lài</t>
-  </si>
-  <si>
     <t>Lọ</t>
   </si>
   <si>
@@ -300,20 +297,38 @@
     <t>MN01</t>
   </si>
   <si>
-    <t>Mặt nạ dưỡng da</t>
-  </si>
-  <si>
     <t>DL01</t>
   </si>
   <si>
     <t>Combo du lịch</t>
+  </si>
+  <si>
+    <t>UMT01</t>
+  </si>
+  <si>
+    <t>Son ủ môi (hàng tặng)</t>
+  </si>
+  <si>
+    <t>CD01</t>
+  </si>
+  <si>
+    <t>Gel đắp thảo dược (hũ 50gr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cái </t>
+  </si>
+  <si>
+    <t>Nước hoa nhài</t>
+  </si>
+  <si>
+    <t>Mặt nạ hoa nhài</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,6 +354,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0451A5"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -401,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -431,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D4085-4A68-B840-8338-57C1E8076B76}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1556,103 +1580,143 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D42" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
